--- a/Reports/KSR2_Report_Very_Strong_Overcast.xlsx
+++ b/Reports/KSR2_Report_Very_Strong_Overcast.xlsx
@@ -69,15 +69,6 @@
     <t>Some of measures with very strong strongest wind blow have overcast insolation.</t>
   </si>
   <si>
-    <t>Around one thirds of measures with very strong strongest wind blow have overcast insolation.</t>
-  </si>
-  <si>
-    <t>Around half of measures with very strong strongest wind blow have overcast insolation.</t>
-  </si>
-  <si>
-    <t>Around two thirds of measures with very strong strongest wind blow have overcast insolation.</t>
-  </si>
-  <si>
     <t>Majority of measures with very strong strongest wind blow have overcast insolation.</t>
   </si>
   <si>
@@ -87,21 +78,6 @@
     <t>Less than 200 of measures with very strong strongest wind blow have overcast insolation.</t>
   </si>
   <si>
-    <t>Around 500 of measures with very strong strongest wind blow have overcast insolation.</t>
-  </si>
-  <si>
-    <t>Around 1000 of measures with very strong strongest wind blow have overcast insolation.</t>
-  </si>
-  <si>
-    <t>Around 2000 of measures with very strong strongest wind blow have overcast insolation.</t>
-  </si>
-  <si>
-    <t>Around 3000 of measures with very strong strongest wind blow have overcast insolation.</t>
-  </si>
-  <si>
-    <t>Around 5000 of measures with very strong strongest wind blow have overcast insolation.</t>
-  </si>
-  <si>
     <t>More than 6000 of measures with very strong strongest wind blow have overcast insolation.</t>
   </si>
   <si>
@@ -120,15 +96,6 @@
     <t xml:space="preserve">Some </t>
   </si>
   <si>
-    <t xml:space="preserve">Around one thirds </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Around half </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Around two thirds </t>
-  </si>
-  <si>
     <t xml:space="preserve">Majority </t>
   </si>
   <si>
@@ -138,22 +105,55 @@
     <t>Less than 200</t>
   </si>
   <si>
-    <t>Around 500</t>
-  </si>
-  <si>
-    <t>Around 1000</t>
-  </si>
-  <si>
-    <t>Around 2000</t>
-  </si>
-  <si>
-    <t>Around 3000</t>
-  </si>
-  <si>
-    <t>Around 5000</t>
-  </si>
-  <si>
     <t>More than 6000</t>
+  </si>
+  <si>
+    <t>About one thirds of measures with very strong strongest wind blow have overcast insolation.</t>
+  </si>
+  <si>
+    <t>About half of measures with very strong strongest wind blow have overcast insolation.</t>
+  </si>
+  <si>
+    <t>About two thirds of measures with very strong strongest wind blow have overcast insolation.</t>
+  </si>
+  <si>
+    <t>About 500 of measures with very strong strongest wind blow have overcast insolation.</t>
+  </si>
+  <si>
+    <t>About 1000 of measures with very strong strongest wind blow have overcast insolation.</t>
+  </si>
+  <si>
+    <t>About 2000 of measures with very strong strongest wind blow have overcast insolation.</t>
+  </si>
+  <si>
+    <t>About 3000 of measures with very strong strongest wind blow have overcast insolation.</t>
+  </si>
+  <si>
+    <t>About 5000 of measures with very strong strongest wind blow have overcast insolation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">About one thirds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">About half </t>
+  </si>
+  <si>
+    <t xml:space="preserve">About two thirds </t>
+  </si>
+  <si>
+    <t>About 500</t>
+  </si>
+  <si>
+    <t>About 1000</t>
+  </si>
+  <si>
+    <t>About 2000</t>
+  </si>
+  <si>
+    <t>About 3000</t>
+  </si>
+  <si>
+    <t>About 5000</t>
   </si>
 </sst>
 </file>
@@ -304,13 +304,13 @@
                   <c:v>Some </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Around one thirds </c:v>
+                  <c:v>About one thirds </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Around half </c:v>
+                  <c:v>About half </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Around two thirds </c:v>
+                  <c:v>About two thirds </c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Majority </c:v>
@@ -322,19 +322,19 @@
                   <c:v>Less than 200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Around 500</c:v>
+                  <c:v>About 500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Around 1000</c:v>
+                  <c:v>About 1000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Around 2000</c:v>
+                  <c:v>About 2000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Around 3000</c:v>
+                  <c:v>About 3000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Around 5000</c:v>
+                  <c:v>About 5000</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>More than 6000</c:v>
@@ -455,13 +455,13 @@
                   <c:v>Some </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Around one thirds </c:v>
+                  <c:v>About one thirds </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Around half </c:v>
+                  <c:v>About half </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Around two thirds </c:v>
+                  <c:v>About two thirds </c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Majority </c:v>
@@ -473,19 +473,19 @@
                   <c:v>Less than 200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Around 500</c:v>
+                  <c:v>About 500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Around 1000</c:v>
+                  <c:v>About 1000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Around 2000</c:v>
+                  <c:v>About 2000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Around 3000</c:v>
+                  <c:v>About 3000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Around 5000</c:v>
+                  <c:v>About 5000</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>More than 6000</c:v>
@@ -603,13 +603,13 @@
                   <c:v>Some </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Around one thirds </c:v>
+                  <c:v>About one thirds </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Around half </c:v>
+                  <c:v>About half </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Around two thirds </c:v>
+                  <c:v>About two thirds </c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Majority </c:v>
@@ -621,19 +621,19 @@
                   <c:v>Less than 200</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Around 500</c:v>
+                  <c:v>About 500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Around 1000</c:v>
+                  <c:v>About 1000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Around 2000</c:v>
+                  <c:v>About 2000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Around 3000</c:v>
+                  <c:v>About 3000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Around 5000</c:v>
+                  <c:v>About 5000</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>More than 6000</c:v>
@@ -707,11 +707,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="445607200"/>
-        <c:axId val="445606416"/>
+        <c:axId val="433594552"/>
+        <c:axId val="433591024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="445607200"/>
+        <c:axId val="433594552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -754,7 +754,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445606416"/>
+        <c:crossAx val="433591024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -762,7 +762,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445606416"/>
+        <c:axId val="433591024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,7 +878,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445607200"/>
+        <c:crossAx val="433594552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1569,225 +1569,79 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="22">
-          <cell r="K22" t="str">
-            <v>T1</v>
-          </cell>
-          <cell r="L22" t="str">
-            <v>T6</v>
-          </cell>
-          <cell r="M22" t="str">
-            <v>T7</v>
-          </cell>
-        </row>
         <row r="23">
           <cell r="J23" t="str">
             <v>None</v>
-          </cell>
-          <cell r="K23">
-            <v>0</v>
-          </cell>
-          <cell r="L23">
-            <v>0.9</v>
-          </cell>
-          <cell r="M23">
-            <v>0.95</v>
           </cell>
         </row>
         <row r="24">
           <cell r="J24" t="str">
             <v>Less than quarter</v>
           </cell>
-          <cell r="K24">
-            <v>0</v>
-          </cell>
-          <cell r="L24">
-            <v>0.7</v>
-          </cell>
-          <cell r="M24">
-            <v>0.77500000000000002</v>
-          </cell>
         </row>
         <row r="25">
           <cell r="J25" t="str">
             <v xml:space="preserve">Some </v>
           </cell>
-          <cell r="K25">
-            <v>0</v>
-          </cell>
-          <cell r="L25">
-            <v>0.75</v>
-          </cell>
-          <cell r="M25">
-            <v>0.8</v>
-          </cell>
         </row>
         <row r="26">
           <cell r="J26" t="str">
-            <v xml:space="preserve">Around one thirds </v>
-          </cell>
-          <cell r="K26">
-            <v>0</v>
-          </cell>
-          <cell r="L26">
-            <v>0.8</v>
-          </cell>
-          <cell r="M26">
-            <v>0.9</v>
+            <v xml:space="preserve">About one thirds </v>
           </cell>
         </row>
         <row r="27">
           <cell r="J27" t="str">
-            <v xml:space="preserve">Around half </v>
-          </cell>
-          <cell r="K27">
-            <v>0</v>
-          </cell>
-          <cell r="L27">
-            <v>0.8</v>
-          </cell>
-          <cell r="M27">
-            <v>0.85</v>
+            <v xml:space="preserve">About half </v>
           </cell>
         </row>
         <row r="28">
           <cell r="J28" t="str">
-            <v xml:space="preserve">Around two thirds </v>
-          </cell>
-          <cell r="K28">
-            <v>0.11604732660214004</v>
-          </cell>
-          <cell r="L28">
-            <v>0.8</v>
-          </cell>
-          <cell r="M28">
-            <v>0.9</v>
+            <v xml:space="preserve">About two thirds </v>
           </cell>
         </row>
         <row r="29">
           <cell r="J29" t="str">
             <v xml:space="preserve">Majority </v>
           </cell>
-          <cell r="K29">
-            <v>0.96790534679572016</v>
-          </cell>
-          <cell r="L29">
-            <v>0.79999999999999993</v>
-          </cell>
-          <cell r="M29">
-            <v>0.85</v>
-          </cell>
         </row>
         <row r="30">
           <cell r="J30" t="str">
             <v>Almost all</v>
-          </cell>
-          <cell r="K30">
-            <v>0</v>
-          </cell>
-          <cell r="L30">
-            <v>0.84</v>
-          </cell>
-          <cell r="M30">
-            <v>0.87</v>
           </cell>
         </row>
         <row r="31">
           <cell r="J31" t="str">
             <v>Less than 200</v>
           </cell>
-          <cell r="K31">
-            <v>1</v>
-          </cell>
-          <cell r="L31">
-            <v>0.95046160774600319</v>
-          </cell>
-          <cell r="M31">
-            <v>0.9527133528484576</v>
-          </cell>
         </row>
         <row r="32">
           <cell r="J32" t="str">
-            <v>Around 500</v>
-          </cell>
-          <cell r="K32">
-            <v>0</v>
-          </cell>
-          <cell r="L32">
-            <v>0.93244764692636795</v>
-          </cell>
-          <cell r="M32">
-            <v>0.96622382346318392</v>
+            <v>About 500</v>
           </cell>
         </row>
         <row r="33">
           <cell r="J33" t="str">
-            <v>Around 1000</v>
-          </cell>
-          <cell r="K33">
-            <v>0</v>
-          </cell>
-          <cell r="L33">
-            <v>0.86489529385273589</v>
-          </cell>
-          <cell r="M33">
-            <v>0.93244764692636795</v>
+            <v>About 1000</v>
           </cell>
         </row>
         <row r="34">
           <cell r="J34" t="str">
-            <v>Around 2000</v>
-          </cell>
-          <cell r="K34">
-            <v>0</v>
-          </cell>
-          <cell r="L34">
-            <v>0.86489529385273589</v>
-          </cell>
-          <cell r="M34">
-            <v>0.93244764692636795</v>
+            <v>About 2000</v>
           </cell>
         </row>
         <row r="35">
           <cell r="J35" t="str">
-            <v>Around 3000</v>
-          </cell>
-          <cell r="K35">
-            <v>0</v>
-          </cell>
-          <cell r="L35">
-            <v>0.81986039180364778</v>
-          </cell>
-          <cell r="M35">
-            <v>0.90993019590182389</v>
+            <v>About 3000</v>
           </cell>
         </row>
         <row r="36">
           <cell r="J36" t="str">
-            <v>Around 5000</v>
-          </cell>
-          <cell r="K36">
-            <v>0</v>
-          </cell>
-          <cell r="L36">
-            <v>0.77482548975455978</v>
-          </cell>
-          <cell r="M36">
-            <v>0.88741274487727995</v>
+            <v>About 5000</v>
           </cell>
         </row>
         <row r="37">
           <cell r="J37" t="str">
             <v>More than 6000</v>
-          </cell>
-          <cell r="K37">
-            <v>0</v>
-          </cell>
-          <cell r="L37">
-            <v>0.43704120693537485</v>
-          </cell>
-          <cell r="M37">
-            <v>0.49334609322224721</v>
           </cell>
         </row>
       </sheetData>
@@ -2061,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:M35"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2225,7 +2079,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2263,7 +2117,7 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2301,7 +2155,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>0.90467706013361759</v>
@@ -2339,7 +2193,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2377,7 +2231,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2415,7 +2269,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2453,7 +2307,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2491,7 +2345,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2529,7 +2383,7 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2567,7 +2421,7 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2605,7 +2459,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2643,7 +2497,7 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2707,31 +2561,31 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F21" s="1">
         <v>0.9</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H21" s="1">
         <v>0.95</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -2745,31 +2599,31 @@
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1">
         <v>0.7</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H22" s="1">
         <v>0.77500000000000002</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -2783,31 +2637,31 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F23" s="1">
         <v>0.75</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H23" s="1">
         <v>0.8</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -2821,31 +2675,31 @@
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F24" s="1">
         <v>0.8</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1">
         <v>0.9</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -2859,31 +2713,31 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F25" s="1">
         <v>0.8</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1">
         <v>0.85</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -2897,31 +2751,31 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1">
         <v>0.90467706013361759</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F26" s="1">
         <v>0.8</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H26" s="1">
         <v>0.9</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K26" s="1">
         <v>0.90467706013361759</v>
@@ -2935,31 +2789,31 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F27" s="1">
         <v>0.79999999999999993</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H27" s="1">
         <v>0.85</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -2973,31 +2827,31 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F28" s="1">
         <v>0.84</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H28" s="1">
         <v>0.87</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -3011,31 +2865,31 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F29" s="1">
         <v>0.9870580622389552</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H29" s="1">
         <v>0.98764633213718456</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -3049,31 +2903,31 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F30" s="1">
         <v>0.98235190305312081</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H30" s="1">
         <v>0.99117595152656035</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -3087,31 +2941,31 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1">
         <v>0</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F31" s="1">
         <v>0.96470380610624151</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H31" s="1">
         <v>0.98235190305312081</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -3125,31 +2979,31 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F32" s="1">
         <v>0.96470380610624151</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H32" s="1">
         <v>0.98235190305312081</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -3163,31 +3017,31 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F33" s="1">
         <v>0.95293840814165542</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H33" s="1">
         <v>0.97646920407082771</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -3201,31 +3055,31 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F34" s="1">
         <v>0.94117301017706922</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H34" s="1">
         <v>0.97058650508853461</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -3239,31 +3093,31 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F35" s="1">
         <v>0.85292664274369079</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H35" s="1">
         <v>0.86763633154891462</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
